--- a/data.xlsx
+++ b/data.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Sheet 1'!A1:F46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Sheet 1'!A1:F47</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -392,61 +392,41 @@
     <col min="6" max="6" customWidth="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Tên tuyến đường</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Ngày khởi hành</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Ngày kết thúc</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Nhà xe</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Tên tài xế</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Biển số xe</v>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Trần gia hiệu</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44379.292129629626</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44387.292129629626</v>
+        <v>Tên tuyến đường</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Ngày khởi hành</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Ngày kết thúc</v>
       </c>
       <c r="D5" t="str">
-        <v>nhà xe phước sơn</v>
+        <v>Nhà xe</v>
       </c>
       <c r="E5" t="str">
-        <v>Nguyễn Văn A</v>
+        <v>Tên tài xế</v>
       </c>
       <c r="F5" t="str">
-        <v>77G1-54487</v>
+        <v>Biển số xe</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>test</v>
+        <v>Trần gia hiệu</v>
       </c>
       <c r="B6" s="1">
-        <v>44378.292129629626</v>
+        <v>44379.292129629626</v>
       </c>
       <c r="C6" s="1">
-        <v>44379.292129629626</v>
+        <v>44387.292129629626</v>
       </c>
       <c r="D6" t="str">
-        <v>test</v>
+        <v>nhà xe phước sơn</v>
       </c>
       <c r="E6" t="str">
-        <v>test</v>
+        <v>Nguyễn Văn A</v>
       </c>
       <c r="F6" t="str">
         <v>77G1-54487</v>
@@ -454,16 +434,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Bình định- Hội An</v>
+        <v>test</v>
       </c>
       <c r="B7" s="1">
-        <v>44406.292129629626</v>
+        <v>44378.292129629626</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44379.292129629626</v>
       </c>
       <c r="D7" t="str">
-        <v>Nhà xe Diêu Trì</v>
+        <v>test</v>
       </c>
       <c r="E7" t="str">
-        <v>Nguyễn Văn Tuấn</v>
+        <v>test</v>
       </c>
       <c r="F7" t="str">
         <v>77G1-54487</v>
@@ -471,19 +454,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bắc Nam</v>
+        <v>Bình định- Hội An</v>
       </c>
       <c r="B8" s="1">
-        <v>44378.292129629626</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44378.292129629626</v>
+        <v>44406.292129629626</v>
       </c>
       <c r="D8" t="str">
-        <v>nhà xe phước sơn</v>
+        <v>Nhà xe Diêu Trì</v>
       </c>
       <c r="E8" t="str">
-        <v>Nguyễn Văn A</v>
+        <v>Nguyễn Văn Tuấn</v>
       </c>
       <c r="F8" t="str">
         <v>77G1-54487</v>
@@ -491,61 +471,70 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bac - Nam</v>
+        <v>Bắc Nam</v>
       </c>
       <c r="B9" s="1">
-        <v>35598.292129629626</v>
+        <v>44378.292129629626</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44378.292129629626</v>
+      </c>
+      <c r="D9" t="str">
+        <v>nhà xe phước sơn</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Nguyễn Văn A</v>
       </c>
       <c r="F9" t="str">
-        <v>6546413</v>
+        <v>77G1-54487</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Trần gia hiệu</v>
+        <v>Bac - Nam</v>
       </c>
       <c r="B10" s="1">
-        <v>44384.292129629626</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44401.292129629626</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Nguyễn Văn A</v>
+        <v>35598.292129629626</v>
       </c>
       <c r="F10" t="str">
-        <v>77G1-54487</v>
+        <v>6546413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>123</v>
+        <v>Trần gia hiệu</v>
       </c>
       <c r="B11" s="1">
-        <v>44378.292129629626</v>
+        <v>44384.292129629626</v>
       </c>
       <c r="C11" s="1">
-        <v>44393.292129629626</v>
-      </c>
-      <c r="D11" t="str">
-        <v>garage</v>
+        <v>44401.292129629626</v>
       </c>
       <c r="E11" t="str">
-        <v>driver</v>
+        <v>Nguyễn Văn A</v>
       </c>
       <c r="F11" t="str">
-        <v>bsx</v>
+        <v>77G1-54487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Bac - Nam</v>
+        <v>123</v>
       </c>
       <c r="B12" s="1">
-        <v>35598.292129629626</v>
+        <v>44378.292129629626</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44393.292129629626</v>
+      </c>
+      <c r="D12" t="str">
+        <v>garage</v>
+      </c>
+      <c r="E12" t="str">
+        <v>driver</v>
       </c>
       <c r="F12" t="str">
-        <v>6546413</v>
+        <v>bsx</v>
       </c>
     </row>
     <row r="13">
@@ -922,10 +911,25 @@
         <v>6546413</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Bac - Nam</v>
+      </c>
+      <c r="B47" s="1">
+        <v>35598.292129629626</v>
+      </c>
+      <c r="F47" t="str">
+        <v>6546413</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F46"/>
+  <autoFilter ref="A1:F47"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+  </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F47"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -384,14 +384,20 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="15"/>
+    <col min="1" max="1" customWidth="1" width="19"/>
     <col min="2" max="2" customWidth="1" width="14"/>
     <col min="3" max="3" customWidth="1" width="13"/>
-    <col min="4" max="4" customWidth="1" width="6"/>
-    <col min="5" max="5" customWidth="1" width="10"/>
-    <col min="6" max="6" customWidth="1" width="10"/>
+    <col min="4" max="4" customWidth="1" width="18"/>
+    <col min="5" max="5" customWidth="1" width="17"/>
+    <col min="6" max="6" customWidth="1" width="12"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Danh sách Tuyến đương</v>
+      </c>
+    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="str">
         <v>Tên tuyến đường</v>
@@ -417,10 +423,10 @@
         <v>Trần gia hiệu</v>
       </c>
       <c r="B5" s="1">
-        <v>44379.292129629626</v>
+        <v>44379.291712962964</v>
       </c>
       <c r="C5" s="1">
-        <v>44387.292129629626</v>
+        <v>44387.291712962964</v>
       </c>
       <c r="D5" t="str">
         <v>nhà xe phước sơn</v>
@@ -437,10 +443,10 @@
         <v>test</v>
       </c>
       <c r="B6" s="1">
-        <v>44378.292129629626</v>
+        <v>44378.291712962964</v>
       </c>
       <c r="C6" s="1">
-        <v>44379.292129629626</v>
+        <v>44379.291712962964</v>
       </c>
       <c r="D6" t="str">
         <v>test</v>
@@ -457,7 +463,7 @@
         <v>Bình định- Hội An</v>
       </c>
       <c r="B7" s="1">
-        <v>44406.292129629626</v>
+        <v>44406.291712962964</v>
       </c>
       <c r="D7" t="str">
         <v>Nhà xe Diêu Trì</v>
@@ -474,10 +480,10 @@
         <v>Bắc Nam</v>
       </c>
       <c r="B8" s="1">
-        <v>44378.292129629626</v>
+        <v>44378.291712962964</v>
       </c>
       <c r="C8" s="1">
-        <v>44378.292129629626</v>
+        <v>44378.291712962964</v>
       </c>
       <c r="D8" t="str">
         <v>nhà xe phước sơn</v>
@@ -494,7 +500,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B9" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F9" t="str">
         <v>6546413</v>
@@ -505,10 +511,10 @@
         <v>Trần gia hiệu</v>
       </c>
       <c r="B10" s="1">
-        <v>44384.292129629626</v>
+        <v>44384.291712962964</v>
       </c>
       <c r="C10" s="1">
-        <v>44401.292129629626</v>
+        <v>44401.291712962964</v>
       </c>
       <c r="E10" t="str">
         <v>Nguyễn Văn A</v>
@@ -522,10 +528,10 @@
         <v>123</v>
       </c>
       <c r="B11" s="1">
-        <v>44378.292129629626</v>
+        <v>44378.291712962964</v>
       </c>
       <c r="C11" s="1">
-        <v>44393.292129629626</v>
+        <v>44393.291712962964</v>
       </c>
       <c r="D11" t="str">
         <v>garage</v>
@@ -542,7 +548,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B12" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F12" t="str">
         <v>6546413</v>
@@ -553,7 +559,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B13" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F13" t="str">
         <v>6546413</v>
@@ -564,7 +570,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B14" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F14" t="str">
         <v>6546413</v>
@@ -575,7 +581,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B15" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F15" t="str">
         <v>6546413</v>
@@ -586,7 +592,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B16" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F16" t="str">
         <v>6546413</v>
@@ -597,7 +603,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B17" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F17" t="str">
         <v>6546413</v>
@@ -608,7 +614,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B18" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F18" t="str">
         <v>6546413</v>
@@ -619,7 +625,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B19" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F19" t="str">
         <v>6546413</v>
@@ -630,7 +636,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B20" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F20" t="str">
         <v>6546413</v>
@@ -641,7 +647,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B21" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F21" t="str">
         <v>6546413</v>
@@ -652,7 +658,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B22" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F22" t="str">
         <v>6546413</v>
@@ -663,7 +669,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B23" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F23" t="str">
         <v>6546413</v>
@@ -674,7 +680,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B24" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F24" t="str">
         <v>6546413</v>
@@ -685,7 +691,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B25" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F25" t="str">
         <v>6546413</v>
@@ -696,7 +702,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B26" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F26" t="str">
         <v>6546413</v>
@@ -707,7 +713,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B27" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F27" t="str">
         <v>6546413</v>
@@ -718,7 +724,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B28" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F28" t="str">
         <v>6546413</v>
@@ -729,7 +735,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B29" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F29" t="str">
         <v>6546413</v>
@@ -740,7 +746,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B30" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F30" t="str">
         <v>6546413</v>
@@ -751,7 +757,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B31" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F31" t="str">
         <v>6546413</v>
@@ -762,7 +768,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B32" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F32" t="str">
         <v>6546413</v>
@@ -773,7 +779,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B33" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F33" t="str">
         <v>6546413</v>
@@ -784,7 +790,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B34" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F34" t="str">
         <v>6546413</v>
@@ -795,7 +801,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B35" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F35" t="str">
         <v>6546413</v>
@@ -806,7 +812,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B36" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F36" t="str">
         <v>6546413</v>
@@ -817,7 +823,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B37" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F37" t="str">
         <v>6546413</v>
@@ -828,7 +834,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B38" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F38" t="str">
         <v>6546413</v>
@@ -839,7 +845,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B39" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F39" t="str">
         <v>6546413</v>
@@ -850,7 +856,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B40" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F40" t="str">
         <v>6546413</v>
@@ -861,7 +867,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B41" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F41" t="str">
         <v>6546413</v>
@@ -872,7 +878,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B42" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F42" t="str">
         <v>6546413</v>
@@ -883,7 +889,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B43" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F43" t="str">
         <v>6546413</v>
@@ -894,7 +900,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B44" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F44" t="str">
         <v>6546413</v>
@@ -905,7 +911,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B45" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F45" t="str">
         <v>6546413</v>
@@ -916,7 +922,7 @@
         <v>Bac - Nam</v>
       </c>
       <c r="B46" s="1">
-        <v>35598.292129629626</v>
+        <v>35598.291712962964</v>
       </c>
       <c r="F46" t="str">
         <v>6546413</v>
@@ -924,6 +930,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F46"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F3"/>
+  </mergeCells>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:F46"/>
   </ignoredErrors>

--- a/data.xlsx
+++ b/data.xlsx
@@ -385,8 +385,8 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="19"/>
-    <col min="2" max="2" customWidth="1" width="14"/>
-    <col min="3" max="3" customWidth="1" width="13"/>
+    <col min="2" max="2" customWidth="1" width="15"/>
+    <col min="3" max="3" customWidth="1" width="15"/>
     <col min="4" max="4" customWidth="1" width="18"/>
     <col min="5" max="5" customWidth="1" width="17"/>
     <col min="6" max="6" customWidth="1" width="12"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Bảng lương tháng</t>
+  </si>
   <si>
     <t>Tên tuyến đường</t>
   </si>
@@ -76,14 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,57 +421,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
         <v>44403</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C5" s="1">
         <v>44410</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E5" t="s">
         <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Bảng lương tháng</t>
+    <t>Danh sách tuyến đường XXXX</t>
   </si>
   <si>
     <t>Tên tuyến đường</t>
@@ -50,13 +50,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <b/>
+      <outline/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,8 +87,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -433,48 +447,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -482,10 +496,10 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>44403</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>44410</v>
       </c>
       <c r="D5" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -67,15 +67,21 @@
       <outline/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,19 +89,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -446,7 +463,7 @@
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,11 +473,8 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -468,53 +482,50 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>44403</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>44410</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
